--- a/data/trans_bre/P28A_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>27,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>173,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>-16,64%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 18,25</t>
+          <t>-32,54; 13,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 25,39</t>
+          <t>-22,91; 21,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 31,95</t>
+          <t>7,72; 45,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 14,91</t>
+          <t>-26,97; 13,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 65,25</t>
+          <t>-58,83; 51,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 144,64</t>
+          <t>-48,87; 99,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 156,61</t>
+          <t>17,59; 656,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 173,78</t>
+          <t>-80,31; 191,85</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-17,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-21,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>-12,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,43%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>-46,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>-47,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 18,07</t>
+          <t>-30,06; 16,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 21,21</t>
+          <t>-9,09; 23,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 16,53</t>
+          <t>-47,42; 2,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 12,55</t>
+          <t>-53,69; 5,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 47,96</t>
+          <t>-43,9; 43,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 199,89</t>
+          <t>-39,25; 336,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 100,62</t>
+          <t>-79,1; 15,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 55,9</t>
+          <t>-81,77; 29,66</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>-12,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-32,57%</t>
+          <t>27,25%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 6,74</t>
+          <t>-22,89; 10,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 11,9</t>
+          <t>-16,5; 8,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 9,8</t>
+          <t>-15,13; 12,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 3,81</t>
+          <t>-8,66; 16,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 12,26</t>
+          <t>-32,16; 20,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 64,12</t>
+          <t>-49,87; 49,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 42,29</t>
+          <t>-46,01; 77,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 23,15</t>
+          <t>-34,61; 184,68</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>-8,41%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 17,53</t>
+          <t>-11,47; 18,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 22,16</t>
+          <t>-5,44; 17,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 13,12</t>
+          <t>-13,14; 11,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 14,01</t>
+          <t>-15,8; 9,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 34,09</t>
+          <t>-17,47; 36,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 181,6</t>
+          <t>-24,35; 153,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 57,73</t>
+          <t>-38,85; 59,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 85,7</t>
+          <t>-50,54; 55,04</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>-31,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>-18,4%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 12,84</t>
+          <t>-15,31; 17,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 13,27</t>
+          <t>-23,16; 6,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 22,07</t>
+          <t>-0,79; 31,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 14,46</t>
+          <t>-17,93; 9,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 21,37</t>
+          <t>-18,83; 26,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 76,53</t>
+          <t>-70,36; 41,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 166,02</t>
+          <t>-4,08; 238,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 105,27</t>
+          <t>-64,08; 76,72</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>65,41%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 22,97</t>
+          <t>-11,09; 26,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 25,9</t>
+          <t>-7,16; 32,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 25,43</t>
+          <t>-3,44; 30,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 48,16</t>
+          <t>-8,34; 27,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 44,48</t>
+          <t>-13,69; 45,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 180,31</t>
+          <t>-22,7; 187,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 224,38</t>
+          <t>-21,82; 457,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 832,54</t>
+          <t>-52,61; 646,77</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-15,74%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,7</t>
+          <t>-10,55; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 12,57</t>
+          <t>-3,61; 10,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,9</t>
+          <t>-4,95; 10,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,47</t>
+          <t>-13,83; 3,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 12,5</t>
+          <t>-16,17; 10,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 66,12</t>
+          <t>-13,55; 54,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 46,44</t>
+          <t>-16,23; 50,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 45,8</t>
+          <t>-42,91; 19,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>27,77</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-22,83%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>173,61%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-16,64%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.731465530831588</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.088100521722685</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>32.97198086383793</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.951784726119666</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2109072188683855</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.05890040202606007</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.000674765448079</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1533868243624669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-32,54; 13,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 21,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 45,97</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,97; 13,45</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-58,83; 51,49</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-48,87; 99,95</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>17,59; 656,72</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-80,31; 191,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.77677236272142</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-23.02216474618596</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>8.516464600779766</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-27.2864407170412</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.5957147922576805</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4907318139463438</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2473963851661323</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.82488019519046</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.6116992998031</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.86116059185591</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>51.37435409964194</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.82832210951042</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5817152731738003</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.07240695546773</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>7.873518199806496</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.925624178436861</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-7,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-17,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-21,42</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-12,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>45,03%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-46,28%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-47,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-30,06; 16,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 23,35</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-47,42; 2,51</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-53,69; 5,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-43,9; 43,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-39,25; 336,95</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-79,1; 15,65</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-81,77; 29,66</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.277052105258791</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.452203540976285</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-16.7440444893414</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-19.10678917966385</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1293247946577081</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6070122206560994</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4213574308378464</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4325896428819396</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-10,01%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-12,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,25%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-30.05576312223107</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.146187217161703</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-45.8774405303603</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-48.03685047636662</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4389909416684354</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3317413522521848</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.787723077141694</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7653062739569035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,89; 10,13</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 8,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,13; 12,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,66; 16,69</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-32,16; 20,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-49,87; 49,41</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-46,01; 77,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-34,61; 184,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.23972836143991</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.67527113374983</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.236261648685429</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.670813011188113</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4369172160131125</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.387302187321911</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2005459976656634</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3527734209600676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,02</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,65%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>35,56%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-5,15%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-8,41%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.080887832491044</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.691925616510573</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3429469966471921</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.833448650404523</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1000783982077499</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1711596356330845</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.01284748184530613</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2695137297889802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,47; 18,02</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 17,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,14; 11,45</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; 9,23</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-17,47; 36,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-24,35; 153,39</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-38,85; 59,59</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-50,54; 55,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-22.88848251480746</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.08441538616699</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-15.08465547482719</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.870194722035436</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3215821121684802</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.552255870160719</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4295772982220324</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4026904541211564</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.126384757314</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.288220501516703</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.31837378389135</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.31584419582382</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2004099586205515</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4900430886739914</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7570857468992729</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.543238735272032</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,76</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-31,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>64,91%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-18,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,31; 17,5</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-23,16; 6,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 31,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-17,93; 9,96</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-18,83; 26,79</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-70,36; 41,41</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 238,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-64,08; 76,72</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.906355899162107</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.622190995797018</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.039041145673504</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.656469235733465</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.0860340115831399</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.4086317874942482</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.09747051785114534</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.06657536955852821</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,27</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,46</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,25</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>11,74%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>47,49%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>84,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>65,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.04461005906898</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.630675399239771</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-17.41530974806216</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-15.34254380304019</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1375092828165072</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2347099370708959</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4511621674116064</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4714097672596022</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 26,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; 32,79</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 30,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 27,34</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-13,69; 45,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 187,47</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-21,82; 457,1</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-52,61; 646,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18.9774032223993</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>20.26497382251721</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.919186652658347</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.12179939774135</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4041384599627237</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.641950849648917</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4587444549420002</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5708992025983395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,83</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-4,77%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>13,01%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-15,74%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.697975216433067</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-6.695372341257114</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>15.6903837921611</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-3.767119402813893</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.02341964460914451</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.2709495518371525</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.6986692490510619</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.1748204085014561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 5,63</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 10,5</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 10,39</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-13,83; 3,45</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-16,17; 10,35</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-13,55; 54,68</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-16,23; 50,29</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-42,91; 19,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.3127985012937</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-22.5928795815741</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.7711678862368774</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-19.00553299517049</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1883096376183916</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.6870573555374998</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.04629132958521749</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.658190000301108</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.50115860312495</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.755081669158631</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>34.83885245550739</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>11.31238102943518</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.2678771415191347</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.605929262189372</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>2.187228680240231</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.7772123411278444</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>8.27111084415122</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>17.89690927507543</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>12.68260461831573</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.695961843438969</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1174435017302256</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.6876514276224244</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.8137454338502147</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.5163884594955869</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-11.08573522775622</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.883727704932237</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-4.102745433722728</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-9.761127498262633</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1368784470500974</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.1556489644852701</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.2509613014809959</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.5433320453080509</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>26.515425924595</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>37.44935915490061</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>29.23483531928287</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>27.55745745988512</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.4508333516182024</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2.304992508180065</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>3.908516487489238</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>6.890595387976363</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.475105214508333</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.785368877521872</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.644162746477065</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-3.575981789540844</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.04108346286800546</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1633030933878369</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.1740851467092848</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1441960496864785</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.847322126584578</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.986888201048766</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.908913729013815</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-14.86025288101245</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1541646558947879</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.1122381318498832</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.1268853440191818</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.4350131530493982</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.571944084035009</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.64259404165741</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>12.53298080028044</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.902792330118713</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1036255586207417</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.5521795953209181</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.5457333021189903</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.2103403048019309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
